--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H2">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N2">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q2">
-        <v>828.1465901970852</v>
+        <v>1194.949527653144</v>
       </c>
       <c r="R2">
-        <v>7453.319311773766</v>
+        <v>10754.5457488783</v>
       </c>
       <c r="S2">
-        <v>0.2387975452339363</v>
+        <v>0.2087076716718026</v>
       </c>
       <c r="T2">
-        <v>0.2387975452339363</v>
+        <v>0.2087076716718026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H3">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q3">
-        <v>39.36344872616111</v>
+        <v>27.88103253880667</v>
       </c>
       <c r="R3">
-        <v>354.27103853545</v>
+        <v>250.92929284926</v>
       </c>
       <c r="S3">
-        <v>0.01135052059504607</v>
+        <v>0.004869649512652198</v>
       </c>
       <c r="T3">
-        <v>0.01135052059504607</v>
+        <v>0.004869649512652197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H4">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N4">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q4">
-        <v>40.93537152414557</v>
+        <v>39.13560890108001</v>
       </c>
       <c r="R4">
-        <v>368.4183437173101</v>
+        <v>352.22048010972</v>
       </c>
       <c r="S4">
-        <v>0.01180378733537838</v>
+        <v>0.006835352978668705</v>
       </c>
       <c r="T4">
-        <v>0.01180378733537838</v>
+        <v>0.006835352978668705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H5">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N5">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O5">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P5">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q5">
-        <v>29.45777328069501</v>
+        <v>21.80429336745134</v>
       </c>
       <c r="R5">
-        <v>265.1199595262551</v>
+        <v>196.238640307062</v>
       </c>
       <c r="S5">
-        <v>0.008494201426119169</v>
+        <v>0.003808297501993429</v>
       </c>
       <c r="T5">
-        <v>0.008494201426119168</v>
+        <v>0.003808297501993429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>78.705136</v>
       </c>
       <c r="I6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N6">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q6">
-        <v>787.590726297008</v>
+        <v>1604.45383406577</v>
       </c>
       <c r="R6">
-        <v>7088.316536673072</v>
+        <v>14440.08450659193</v>
       </c>
       <c r="S6">
-        <v>0.2271031895983293</v>
+        <v>0.2802309355027114</v>
       </c>
       <c r="T6">
-        <v>0.2271031895983293</v>
+        <v>0.2802309355027114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>78.705136</v>
       </c>
       <c r="I7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q7">
         <v>37.43574813779555</v>
@@ -883,10 +883,10 @@
         <v>336.9217332401599</v>
       </c>
       <c r="S7">
-        <v>0.01079466469477827</v>
+        <v>0.006538458445584852</v>
       </c>
       <c r="T7">
-        <v>0.01079466469477827</v>
+        <v>0.006538458445584851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>78.705136</v>
       </c>
       <c r="I8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N8">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q8">
-        <v>38.93069098100978</v>
+        <v>52.54722169994667</v>
       </c>
       <c r="R8">
-        <v>350.376218829088</v>
+        <v>472.92499529952</v>
       </c>
       <c r="S8">
-        <v>0.01122573412795633</v>
+        <v>0.009177800434263415</v>
       </c>
       <c r="T8">
-        <v>0.01122573412795633</v>
+        <v>0.009177800434263415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>78.705136</v>
       </c>
       <c r="I9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N9">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O9">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P9">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q9">
-        <v>28.015171864336</v>
+        <v>29.27653535393245</v>
       </c>
       <c r="R9">
-        <v>252.136546779024</v>
+        <v>263.488818185392</v>
       </c>
       <c r="S9">
-        <v>0.008078224736659459</v>
+        <v>0.005113385450125942</v>
       </c>
       <c r="T9">
-        <v>0.008078224736659458</v>
+        <v>0.005113385450125942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H10">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N10">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q10">
-        <v>566.358849919447</v>
+        <v>1203.051205378321</v>
       </c>
       <c r="R10">
-        <v>5097.229649275023</v>
+        <v>10827.46084840489</v>
       </c>
       <c r="S10">
-        <v>0.1633105837579953</v>
+        <v>0.2101226957004558</v>
       </c>
       <c r="T10">
-        <v>0.1633105837579953</v>
+        <v>0.2101226957004558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H11">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q11">
-        <v>26.92015859668778</v>
+        <v>28.07006407114111</v>
       </c>
       <c r="R11">
-        <v>242.28142737019</v>
+        <v>252.63057664027</v>
       </c>
       <c r="S11">
-        <v>0.00776247570936375</v>
+        <v>0.004902665410037887</v>
       </c>
       <c r="T11">
-        <v>0.007762475709363751</v>
+        <v>0.004902665410037886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H12">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N12">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q12">
-        <v>27.99517647222689</v>
+        <v>39.40094570699333</v>
       </c>
       <c r="R12">
-        <v>251.956588250042</v>
+        <v>354.60851136294</v>
       </c>
       <c r="S12">
-        <v>0.008072459029708341</v>
+        <v>0.006881696213834264</v>
       </c>
       <c r="T12">
-        <v>0.008072459029708341</v>
+        <v>0.006881696213834263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H13">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N13">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O13">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P13">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q13">
-        <v>20.14579398614901</v>
+        <v>21.95212501539989</v>
       </c>
       <c r="R13">
-        <v>181.312145875341</v>
+        <v>197.569125138599</v>
       </c>
       <c r="S13">
-        <v>0.005809075600415257</v>
+        <v>0.003834117503866934</v>
       </c>
       <c r="T13">
-        <v>0.005809075600415255</v>
+        <v>0.003834117503866933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H14">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N14">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q14">
-        <v>880.05458838707</v>
+        <v>1326.884248889385</v>
       </c>
       <c r="R14">
-        <v>7920.49129548363</v>
+        <v>11941.95824000447</v>
       </c>
       <c r="S14">
-        <v>0.2537653090241924</v>
+        <v>0.2317511457639376</v>
       </c>
       <c r="T14">
-        <v>0.2537653090241925</v>
+        <v>0.2317511457639376</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H15">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.28081</v>
       </c>
       <c r="O15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q15">
-        <v>41.83073875598888</v>
+        <v>30.95938536514777</v>
       </c>
       <c r="R15">
-        <v>376.4766488039</v>
+        <v>278.6344682863299</v>
       </c>
       <c r="S15">
-        <v>0.01206196807243388</v>
+        <v>0.005407308916754206</v>
       </c>
       <c r="T15">
-        <v>0.01206196807243389</v>
+        <v>0.005407308916754205</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H16">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N16">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q16">
-        <v>43.50118923822445</v>
+        <v>43.45658274247334</v>
       </c>
       <c r="R16">
-        <v>391.5107031440201</v>
+        <v>391.10924468226</v>
       </c>
       <c r="S16">
-        <v>0.01254364544611934</v>
+        <v>0.007590046268152758</v>
       </c>
       <c r="T16">
-        <v>0.01254364544611934</v>
+        <v>0.007590046268152757</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H17">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N17">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O17">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P17">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q17">
-        <v>31.30417832569</v>
+        <v>24.21171167309123</v>
       </c>
       <c r="R17">
-        <v>281.73760493121</v>
+        <v>217.905405057821</v>
       </c>
       <c r="S17">
-        <v>0.009026615611568426</v>
+        <v>0.004228772725157852</v>
       </c>
       <c r="T17">
-        <v>0.009026615611568426</v>
+        <v>0.004228772725157851</v>
       </c>
     </row>
   </sheetData>
